--- a/R/rHDPE_App/app/Dataset_Versions.xlsx
+++ b/R/rHDPE_App/app/Dataset_Versions.xlsx
@@ -387,7 +387,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Copy 11/2</t>
+          <t>Copy 26/3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
